--- a/Results/Pathprint/Pathway enrichment.xlsx
+++ b/Results/Pathprint/Pathway enrichment.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1320" windowWidth="25600" windowHeight="14660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="15980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t>NeuroX</t>
   </si>
@@ -121,13 +122,91 @@
   </si>
   <si>
     <t>DEGs</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions (KEGG)</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism (KEGG)</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis (KEGG)</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism (KEGG)</t>
+  </si>
+  <si>
+    <t>ABC transporters (KEGG)</t>
+  </si>
+  <si>
+    <t>Jak-STAT signaling pathway (KEGG)</t>
+  </si>
+  <si>
+    <t>Phototransduction (KEGG)</t>
+  </si>
+  <si>
+    <t>Phase I, non P450 (Wikipathways)</t>
+  </si>
+  <si>
+    <t>Ganglio Sphingolipid Metabolism (Wikipathways)</t>
+  </si>
+  <si>
+    <t>Urea cycle and metabolism of amino groups (Wikipathways)</t>
+  </si>
+  <si>
+    <t>Complement Activation, Classical Pathway (Wikipathways)</t>
+  </si>
+  <si>
+    <t>Complement and Coagulation Cascades (Wikipathways)</t>
+  </si>
+  <si>
+    <t>SIDS Susceptibility Pathways (Wikipathways)</t>
+  </si>
+  <si>
+    <t>Signaling by Insulin receptor (Reactome)</t>
+  </si>
+  <si>
+    <t>Opioid Signalling (Reactome)</t>
+  </si>
+  <si>
+    <t>{POR,15} (Static Module)</t>
+  </si>
+  <si>
+    <t>{SREBF1,11} (Static Module)</t>
+  </si>
+  <si>
+    <t>5500 + 58</t>
+  </si>
+  <si>
+    <t>3500 + 4</t>
+  </si>
+  <si>
+    <t>4000 + 5</t>
+  </si>
+  <si>
+    <t>4500 + 17</t>
+  </si>
+  <si>
+    <t>5000 + 31</t>
+  </si>
+  <si>
+    <t>6000 + 109</t>
+  </si>
+  <si>
+    <t>6500 + 178</t>
+  </si>
+  <si>
+    <t>7000 + 326</t>
+  </si>
+  <si>
+    <t>7500 + 450</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +228,33 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -222,8 +328,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -283,8 +558,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,8 +604,49 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -350,6 +676,11 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -379,6 +710,11 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -710,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -719,29 +1055,29 @@
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="19" thickBot="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -920,6 +1256,2128 @@
     <row r="10" spans="1:8" ht="30">
       <c r="C10" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="57.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16" thickBot="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C1" s="15">
+        <v>3500</v>
+      </c>
+      <c r="D1" s="15">
+        <v>4000</v>
+      </c>
+      <c r="E1" s="15">
+        <v>4500</v>
+      </c>
+      <c r="F1" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G1" s="15">
+        <v>5500</v>
+      </c>
+      <c r="H1" s="15">
+        <v>6000</v>
+      </c>
+      <c r="I1" s="15">
+        <v>6500</v>
+      </c>
+      <c r="J1" s="15">
+        <v>7000</v>
+      </c>
+      <c r="K1" s="15">
+        <v>7500</v>
+      </c>
+      <c r="L1" s="16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18">
+      <c r="A2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
+        <v>6.7805361138347495E-2</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0.13193318600000001</v>
+      </c>
+      <c r="J2" s="29">
+        <v>5.3634856000000002E-2</v>
+      </c>
+      <c r="K2" s="21">
+        <v>9.6924045914585505E-2</v>
+      </c>
+      <c r="L2" s="30">
+        <v>0.21568937099999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18">
+      <c r="A3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1</v>
+      </c>
+      <c r="G3" s="31">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1</v>
+      </c>
+      <c r="I3" s="31">
+        <v>1</v>
+      </c>
+      <c r="J3" s="31">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24">
+        <v>1</v>
+      </c>
+      <c r="L3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18">
+      <c r="A4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="31">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.19902258123911101</v>
+      </c>
+      <c r="I4" s="33">
+        <v>1.2370908E-2</v>
+      </c>
+      <c r="J4" s="33">
+        <v>3.3503800000000001E-4</v>
+      </c>
+      <c r="K4" s="33">
+        <v>2.6055620261331699E-3</v>
+      </c>
+      <c r="L4" s="34">
+        <v>3.683352E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18">
+      <c r="A5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="31">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24">
+        <v>1</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0.79394267500000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18">
+      <c r="A6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="31">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0.43361108599999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18">
+      <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="31">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1</v>
+      </c>
+      <c r="L7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18">
+      <c r="A8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="31">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31">
+        <v>1</v>
+      </c>
+      <c r="H8" s="24">
+        <v>1</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+      <c r="K8" s="24">
+        <v>0.78222062087122302</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0.79394267500000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18">
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="31">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="31">
+        <v>1</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.98372260787959298</v>
+      </c>
+      <c r="L9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18">
+      <c r="A10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="31">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.92095584438918598</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0.70407508200000002</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.78222062087122302</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0.43361108599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18">
+      <c r="A11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>1</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.56826410301248498</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0.54355207299999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31">
+        <v>1</v>
+      </c>
+      <c r="K12" s="24">
+        <v>1</v>
+      </c>
+      <c r="L12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18">
+      <c r="A13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1</v>
+      </c>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="31">
+        <v>1</v>
+      </c>
+      <c r="K13" s="24">
+        <v>1</v>
+      </c>
+      <c r="L13" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18">
+      <c r="A14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31">
+        <v>1</v>
+      </c>
+      <c r="K14" s="24">
+        <v>1</v>
+      </c>
+      <c r="L14" s="32">
+        <v>0.21568937099999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18">
+      <c r="A15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31">
+        <v>1</v>
+      </c>
+      <c r="K15" s="24">
+        <v>1</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0.46913519999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18">
+      <c r="A16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1</v>
+      </c>
+      <c r="J16" s="31">
+        <v>1</v>
+      </c>
+      <c r="K16" s="24">
+        <v>1</v>
+      </c>
+      <c r="L16" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1</v>
+      </c>
+      <c r="J17" s="31">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="23">
+        <v>1</v>
+      </c>
+      <c r="C18" s="31">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="31">
+        <v>1</v>
+      </c>
+      <c r="J18" s="31">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.86948414613488301</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0.795390924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1</v>
+      </c>
+      <c r="K19" s="24">
+        <v>1</v>
+      </c>
+      <c r="L19" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="31">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="31">
+        <v>1</v>
+      </c>
+      <c r="J20" s="31">
+        <v>1</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0.98372260787959298</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0.46913519999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="23">
+        <v>1</v>
+      </c>
+      <c r="C21" s="31">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="31">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.98372260787959298</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0.79394267500000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <v>0.30480743700000001</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.37712181476659101</v>
+      </c>
+      <c r="I22" s="31">
+        <v>0.18180290099999999</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0.63217921200000005</v>
+      </c>
+      <c r="K22" s="33">
+        <v>1.6702813221399299E-2</v>
+      </c>
+      <c r="L22" s="34">
+        <v>3.1336814999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24">
+        <v>6.7805361138347495E-2</v>
+      </c>
+      <c r="I23" s="31">
+        <v>0.13193318600000001</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0.39973730600000001</v>
+      </c>
+      <c r="K23" s="24">
+        <v>0.55924041496471999</v>
+      </c>
+      <c r="L23" s="32">
+        <v>0.49872158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18">
+      <c r="A24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="23">
+        <v>1</v>
+      </c>
+      <c r="C24" s="31">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="31">
+        <v>1</v>
+      </c>
+      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1</v>
+      </c>
+      <c r="J24" s="31">
+        <v>1</v>
+      </c>
+      <c r="K24" s="24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0.79394267500000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18">
+      <c r="A25" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="31">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="24">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31">
+        <v>1</v>
+      </c>
+      <c r="J25" s="31">
+        <v>0.47400974000000001</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.57893797543364101</v>
+      </c>
+      <c r="L25" s="32">
+        <v>0.58243737699999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18">
+      <c r="A26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="31">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24">
+        <v>1</v>
+      </c>
+      <c r="I26" s="31">
+        <v>1</v>
+      </c>
+      <c r="J26" s="31">
+        <v>1</v>
+      </c>
+      <c r="K26" s="24">
+        <v>1</v>
+      </c>
+      <c r="L26" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18">
+      <c r="A27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="23">
+        <v>1</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1</v>
+      </c>
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24">
+        <v>1</v>
+      </c>
+      <c r="I27" s="31">
+        <v>1</v>
+      </c>
+      <c r="J27" s="31">
+        <v>1</v>
+      </c>
+      <c r="K27" s="24">
+        <v>1</v>
+      </c>
+      <c r="L27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="35">
+        <v>4.9500212714276203E-5</v>
+      </c>
+      <c r="C28" s="36">
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="D28" s="33">
+        <v>1.6485073733003299E-4</v>
+      </c>
+      <c r="E28" s="33">
+        <v>2.229773E-3</v>
+      </c>
+      <c r="F28" s="36">
+        <v>4.9926717819052099E-5</v>
+      </c>
+      <c r="G28" s="33">
+        <v>3.3835400000000002E-4</v>
+      </c>
+      <c r="H28" s="33">
+        <v>2.1861180104153E-3</v>
+      </c>
+      <c r="I28" s="33">
+        <v>2.6560599999999999E-4</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1.415452E-3</v>
+      </c>
+      <c r="K28" s="33">
+        <v>4.8719707453694101E-3</v>
+      </c>
+      <c r="L28" s="34">
+        <v>1.8505665000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18">
+      <c r="A29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="31">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24">
+        <v>1</v>
+      </c>
+      <c r="I29" s="31">
+        <v>1</v>
+      </c>
+      <c r="J29" s="31">
+        <v>1</v>
+      </c>
+      <c r="K29" s="24">
+        <v>1</v>
+      </c>
+      <c r="L29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19" thickBot="1">
+      <c r="A30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="26">
+        <v>1</v>
+      </c>
+      <c r="C30" s="37">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27">
+        <v>1</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="37">
+        <v>1</v>
+      </c>
+      <c r="H30" s="27">
+        <v>1</v>
+      </c>
+      <c r="I30" s="37">
+        <v>1</v>
+      </c>
+      <c r="J30" s="37">
+        <v>1</v>
+      </c>
+      <c r="K30" s="27">
+        <v>1</v>
+      </c>
+      <c r="L30" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" thickBot="1"/>
+    <row r="33" spans="1:11" ht="16" thickBot="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="24"/>
+    </row>
+    <row r="34" spans="1:11" ht="18">
+      <c r="A34" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="20">
+        <v>1</v>
+      </c>
+      <c r="C34" s="21">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="21">
+        <v>1</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0.18931585476052301</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0.37351849586639102</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0.19129574971013899</v>
+      </c>
+      <c r="J34" s="22">
+        <v>0.31181615117981398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="18">
+      <c r="A35" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="23">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="24">
+        <v>1</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1</v>
+      </c>
+      <c r="G35" s="24">
+        <v>1</v>
+      </c>
+      <c r="H35" s="24">
+        <v>1</v>
+      </c>
+      <c r="I35" s="24">
+        <v>1</v>
+      </c>
+      <c r="J35" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="18">
+      <c r="A36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="23">
+        <v>1</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24">
+        <v>1</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1</v>
+      </c>
+      <c r="G36" s="24">
+        <v>0.43716901339807701</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0.116591473217509</v>
+      </c>
+      <c r="I36" s="33">
+        <v>1.2310802844691901E-2</v>
+      </c>
+      <c r="J36" s="34">
+        <v>3.8132304826155497E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18">
+      <c r="A37" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="23">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24">
+        <v>1</v>
+      </c>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="24">
+        <v>1</v>
+      </c>
+      <c r="H37" s="24">
+        <v>1</v>
+      </c>
+      <c r="I37" s="24">
+        <v>1</v>
+      </c>
+      <c r="J37" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18">
+      <c r="A38" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="23">
+        <v>1</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24">
+        <v>1</v>
+      </c>
+      <c r="G38" s="24">
+        <v>1</v>
+      </c>
+      <c r="H38" s="24">
+        <v>1</v>
+      </c>
+      <c r="I38" s="24">
+        <v>1</v>
+      </c>
+      <c r="J38" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="18">
+      <c r="A39" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
+      <c r="E39" s="24">
+        <v>1</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
+      <c r="G39" s="24">
+        <v>1</v>
+      </c>
+      <c r="H39" s="24">
+        <v>1</v>
+      </c>
+      <c r="I39" s="24">
+        <v>1</v>
+      </c>
+      <c r="J39" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="18">
+      <c r="A40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="23">
+        <v>1</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" s="24">
+        <v>1</v>
+      </c>
+      <c r="E40" s="24">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24">
+        <v>1</v>
+      </c>
+      <c r="G40" s="24">
+        <v>1</v>
+      </c>
+      <c r="H40" s="24">
+        <v>1</v>
+      </c>
+      <c r="I40" s="24">
+        <v>1</v>
+      </c>
+      <c r="J40" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="18">
+      <c r="A41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1</v>
+      </c>
+      <c r="D41" s="24">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1</v>
+      </c>
+      <c r="H41" s="24">
+        <v>1</v>
+      </c>
+      <c r="I41" s="24">
+        <v>1</v>
+      </c>
+      <c r="J41" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18">
+      <c r="A42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="23">
+        <v>1</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
+      <c r="E42" s="24">
+        <v>1</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+      <c r="G42" s="24">
+        <v>1</v>
+      </c>
+      <c r="H42" s="24">
+        <v>1</v>
+      </c>
+      <c r="I42" s="24">
+        <v>1</v>
+      </c>
+      <c r="J42" s="25">
+        <v>0.92491506536698098</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="18">
+      <c r="A43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="23">
+        <v>1</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1</v>
+      </c>
+      <c r="E43" s="24">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1</v>
+      </c>
+      <c r="H43" s="24">
+        <v>1</v>
+      </c>
+      <c r="I43" s="24">
+        <v>0.67994061979188303</v>
+      </c>
+      <c r="J43" s="25">
+        <v>0.36436612159106502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="18">
+      <c r="A44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="23">
+        <v>1</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1</v>
+      </c>
+      <c r="D44" s="24">
+        <v>1</v>
+      </c>
+      <c r="E44" s="24">
+        <v>7.2581518952143501E-2</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.16115508239479201</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.30293308446566602</v>
+      </c>
+      <c r="H44" s="24">
+        <v>1</v>
+      </c>
+      <c r="I44" s="24">
+        <v>0.35799935611441602</v>
+      </c>
+      <c r="J44" s="25">
+        <v>0.31181615117981398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18">
+      <c r="A45" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="23">
+        <v>1</v>
+      </c>
+      <c r="C45" s="24">
+        <v>1</v>
+      </c>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
+      <c r="E45" s="24">
+        <v>1</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1</v>
+      </c>
+      <c r="H45" s="24">
+        <v>1</v>
+      </c>
+      <c r="I45" s="24">
+        <v>1</v>
+      </c>
+      <c r="J45" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="18">
+      <c r="A46" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="23">
+        <v>1</v>
+      </c>
+      <c r="C46" s="24">
+        <v>1</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1</v>
+      </c>
+      <c r="E46" s="24">
+        <v>1</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="24">
+        <v>1</v>
+      </c>
+      <c r="I46" s="24">
+        <v>1</v>
+      </c>
+      <c r="J46" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="18">
+      <c r="A47" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="23">
+        <v>1</v>
+      </c>
+      <c r="C47" s="24">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
+      <c r="E47" s="24">
+        <v>1</v>
+      </c>
+      <c r="F47" s="24">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24">
+        <v>1</v>
+      </c>
+      <c r="H47" s="24">
+        <v>1</v>
+      </c>
+      <c r="I47" s="24">
+        <v>1</v>
+      </c>
+      <c r="J47" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18">
+      <c r="A48" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="23">
+        <v>1</v>
+      </c>
+      <c r="C48" s="24">
+        <v>1</v>
+      </c>
+      <c r="D48" s="24">
+        <v>1</v>
+      </c>
+      <c r="E48" s="24">
+        <v>1</v>
+      </c>
+      <c r="F48" s="24">
+        <v>1</v>
+      </c>
+      <c r="G48" s="24">
+        <v>1</v>
+      </c>
+      <c r="H48" s="24">
+        <v>1</v>
+      </c>
+      <c r="I48" s="24">
+        <v>1</v>
+      </c>
+      <c r="J48" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="18">
+      <c r="A49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="23">
+        <v>1</v>
+      </c>
+      <c r="C49" s="24">
+        <v>1</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1</v>
+      </c>
+      <c r="E49" s="24">
+        <v>1</v>
+      </c>
+      <c r="F49" s="24">
+        <v>1</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24">
+        <v>1</v>
+      </c>
+      <c r="I49" s="24">
+        <v>1</v>
+      </c>
+      <c r="J49" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="18">
+      <c r="A50" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="24">
+        <v>1</v>
+      </c>
+      <c r="D50" s="24">
+        <v>1</v>
+      </c>
+      <c r="E50" s="24">
+        <v>1</v>
+      </c>
+      <c r="F50" s="24">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24">
+        <v>1</v>
+      </c>
+      <c r="H50" s="24">
+        <v>1</v>
+      </c>
+      <c r="I50" s="24">
+        <v>1</v>
+      </c>
+      <c r="J50" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="18">
+      <c r="A51" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="23">
+        <v>1</v>
+      </c>
+      <c r="C51" s="24">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24">
+        <v>1</v>
+      </c>
+      <c r="E51" s="24">
+        <v>1</v>
+      </c>
+      <c r="F51" s="24">
+        <v>1</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1</v>
+      </c>
+      <c r="H51" s="24">
+        <v>1</v>
+      </c>
+      <c r="I51" s="24">
+        <v>1</v>
+      </c>
+      <c r="J51" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18">
+      <c r="A52" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="23">
+        <v>1</v>
+      </c>
+      <c r="C52" s="24">
+        <v>1</v>
+      </c>
+      <c r="D52" s="24">
+        <v>1</v>
+      </c>
+      <c r="E52" s="24">
+        <v>1</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1</v>
+      </c>
+      <c r="G52" s="24">
+        <v>1</v>
+      </c>
+      <c r="H52" s="24">
+        <v>1</v>
+      </c>
+      <c r="I52" s="24">
+        <v>0.22914034767139699</v>
+      </c>
+      <c r="J52" s="25">
+        <v>0.45257001187632701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="18">
+      <c r="A53" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="23">
+        <v>1</v>
+      </c>
+      <c r="C53" s="24">
+        <v>1</v>
+      </c>
+      <c r="D53" s="24">
+        <v>1</v>
+      </c>
+      <c r="E53" s="24">
+        <v>1</v>
+      </c>
+      <c r="F53" s="24">
+        <v>1</v>
+      </c>
+      <c r="G53" s="24">
+        <v>0.43716901339807701</v>
+      </c>
+      <c r="H53" s="24">
+        <v>1</v>
+      </c>
+      <c r="I53" s="24">
+        <v>1</v>
+      </c>
+      <c r="J53" s="25">
+        <v>0.11778649480905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18">
+      <c r="A54" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="23">
+        <v>1</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
+      <c r="E54" s="24">
+        <v>1</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.14752319449564999</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.14033041534054499</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0.116591473217509</v>
+      </c>
+      <c r="I54" s="24">
+        <v>0.19129574971013899</v>
+      </c>
+      <c r="J54" s="34">
+        <v>2.2569009472714601E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18">
+      <c r="A55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="23">
+        <v>1</v>
+      </c>
+      <c r="C55" s="24">
+        <v>1</v>
+      </c>
+      <c r="D55" s="24">
+        <v>1</v>
+      </c>
+      <c r="E55" s="24">
+        <v>1</v>
+      </c>
+      <c r="F55" s="24">
+        <v>1</v>
+      </c>
+      <c r="G55" s="24">
+        <v>0.18931585476052301</v>
+      </c>
+      <c r="H55" s="24">
+        <v>0.37351849586639102</v>
+      </c>
+      <c r="I55" s="24">
+        <v>0.19129574971013899</v>
+      </c>
+      <c r="J55" s="25">
+        <v>0.31181615117981398</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="18">
+      <c r="A56" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="23">
+        <v>1</v>
+      </c>
+      <c r="C56" s="24">
+        <v>1</v>
+      </c>
+      <c r="D56" s="24">
+        <v>1</v>
+      </c>
+      <c r="E56" s="24">
+        <v>1</v>
+      </c>
+      <c r="F56" s="24">
+        <v>1</v>
+      </c>
+      <c r="G56" s="24">
+        <v>1</v>
+      </c>
+      <c r="H56" s="24">
+        <v>1</v>
+      </c>
+      <c r="I56" s="24">
+        <v>1</v>
+      </c>
+      <c r="J56" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18">
+      <c r="A57" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="23">
+        <v>1</v>
+      </c>
+      <c r="C57" s="24">
+        <v>1</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
+      <c r="E57" s="24">
+        <v>1</v>
+      </c>
+      <c r="F57" s="24">
+        <v>1</v>
+      </c>
+      <c r="G57" s="24">
+        <v>1</v>
+      </c>
+      <c r="H57" s="24">
+        <v>1</v>
+      </c>
+      <c r="I57" s="33">
+        <v>2.2658441099412601E-2</v>
+      </c>
+      <c r="J57" s="34">
+        <v>4.7745372416826103E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18">
+      <c r="A58" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1</v>
+      </c>
+      <c r="C58" s="24">
+        <v>1</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1</v>
+      </c>
+      <c r="E58" s="24">
+        <v>1</v>
+      </c>
+      <c r="F58" s="24">
+        <v>1</v>
+      </c>
+      <c r="G58" s="24">
+        <v>1</v>
+      </c>
+      <c r="H58" s="24">
+        <v>1</v>
+      </c>
+      <c r="I58" s="24">
+        <v>1</v>
+      </c>
+      <c r="J58" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="18">
+      <c r="A59" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="23">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24">
+        <v>1</v>
+      </c>
+      <c r="D59" s="24">
+        <v>1</v>
+      </c>
+      <c r="E59" s="24">
+        <v>1</v>
+      </c>
+      <c r="F59" s="24">
+        <v>1</v>
+      </c>
+      <c r="G59" s="24">
+        <v>1</v>
+      </c>
+      <c r="H59" s="24">
+        <v>1</v>
+      </c>
+      <c r="I59" s="24">
+        <v>1</v>
+      </c>
+      <c r="J59" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18">
+      <c r="A60" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="35">
+        <v>6.2883485805731802E-7</v>
+      </c>
+      <c r="C60" s="36">
+        <v>1.3462236839527699E-6</v>
+      </c>
+      <c r="D60" s="36">
+        <v>6.6370623981421698E-5</v>
+      </c>
+      <c r="E60" s="36">
+        <v>3.8693534375082504E-6</v>
+      </c>
+      <c r="F60" s="36">
+        <v>4.8424418933866299E-5</v>
+      </c>
+      <c r="G60" s="33">
+        <v>5.6915384478291905E-4</v>
+      </c>
+      <c r="H60" s="36">
+        <v>5.2220988887754101E-6</v>
+      </c>
+      <c r="I60" s="33">
+        <v>1.7717582932847101E-4</v>
+      </c>
+      <c r="J60" s="40">
+        <v>3.6328375562626802E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18">
+      <c r="A61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="23">
+        <v>1</v>
+      </c>
+      <c r="C61" s="24">
+        <v>1</v>
+      </c>
+      <c r="D61" s="24">
+        <v>1</v>
+      </c>
+      <c r="E61" s="24">
+        <v>1</v>
+      </c>
+      <c r="F61" s="24">
+        <v>1</v>
+      </c>
+      <c r="G61" s="24">
+        <v>1</v>
+      </c>
+      <c r="H61" s="24">
+        <v>1</v>
+      </c>
+      <c r="I61" s="24">
+        <v>1</v>
+      </c>
+      <c r="J61" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="19" thickBot="1">
+      <c r="A62" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="26">
+        <v>1</v>
+      </c>
+      <c r="C62" s="27">
+        <v>1</v>
+      </c>
+      <c r="D62" s="27">
+        <v>1</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1</v>
+      </c>
+      <c r="F62" s="27">
+        <v>1</v>
+      </c>
+      <c r="G62" s="27">
+        <v>1</v>
+      </c>
+      <c r="H62" s="27">
+        <v>1</v>
+      </c>
+      <c r="I62" s="27">
+        <v>1</v>
+      </c>
+      <c r="J62" s="28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
